--- a/Projects/Pennink-Model/cases/Series1/Series1.xlsx
+++ b/Projects/Pennink-Model/cases/Series1/Series1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Theo/GRWMODELS/python/mf6lab/Projects/Pennink-Model/cases/Series1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{143A7064-4223-7644-8896-544B944667D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6220902D-6E7A-B340-B022-F893257DF76D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9820" yWindow="-24220" windowWidth="28180" windowHeight="16980" tabRatio="751" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9820" yWindow="-24220" windowWidth="28180" windowHeight="16980" tabRatio="751" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="NAM" sheetId="1" r:id="rId1"/>
@@ -3650,8 +3650,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C06500DB-BECE-8C4B-B4E6-A47BC546FCEB}">
   <dimension ref="A1:H477"/>
   <sheetViews>
-    <sheetView zoomScale="182" zoomScaleNormal="182" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" topLeftCell="A416" zoomScale="182" zoomScaleNormal="182" workbookViewId="0">
+      <selection activeCell="C426" sqref="C426"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -8069,7 +8069,7 @@
         <v>25</v>
       </c>
       <c r="C425">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="426" spans="1:8" x14ac:dyDescent="0.15">
@@ -8633,7 +8633,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B06ADD67-459A-3448-A388-0C190A7D0288}">
   <dimension ref="A1:D315"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="203" zoomScaleNormal="203" workbookViewId="0">
+    <sheetView zoomScale="203" zoomScaleNormal="203" workbookViewId="0">
       <selection activeCell="B40" sqref="B40"/>
     </sheetView>
   </sheetViews>
